--- a/protocol_database/meals.xlsx
+++ b/protocol_database/meals.xlsx
@@ -463,42 +463,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tortellini</t>
+          <t>ragu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6.83</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{"name": "CHIC&amp;BAC TORTEL", "total": {"protein": 0.2, "calories": 1, "cost": 0.2, "amount": 0.0, "name": []}}</t>
+          <t>{"name": "food (food)", "total": {"name": [], "protein": 0.515, "calories": 5.15, "cost": 0.515, "amount": 0.0}}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tortellini</t>
+          <t>ragu</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6.83</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[{"name": "CHIC&amp;BAC TORTEL", "total": {"protein": 0.2, "calories": 1, "cost": 0.2, "amount": 0.0, "name": []}}]</t>
+          <t>{"name": "food name (food vendor)", "total": {"name": [], "protein": 0.168, "calories": 1.68, "cost": 0.168, "amount": 0.0}}</t>
         </is>
       </c>
     </row>
